--- a/datamining/final_data/tfidf1984_nltk.xlsx
+++ b/datamining/final_data/tfidf1984_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GP39"/>
+  <dimension ref="A1:FH39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,970 +452,800 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>search</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ability</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>problems</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>talent</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>creativity</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>talented</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>necessary</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>procedure</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>approach</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>door</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>programming</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>research-based</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>revolving</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>system</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>triad</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>aptitude</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>cautions</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>certain</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>general</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>measures</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>principles</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>some</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>specific</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>use</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>beyond</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>characteristics</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>identify</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>reject</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>student</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>we</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>implementing</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>important</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>maintaining</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>organizational</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>planning</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>programs</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>being</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>creative</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>developing</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>excellence</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>from</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>history-making</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>ingredient</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>keep</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>nation</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>neglected</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>our</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>risk</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>students</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>which</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>would</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>organization</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>parent</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>power</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>wanted</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>case</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>preferences</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>selected</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>studies</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>style</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>instructional</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>preferred</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>strategies</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>styles</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>5th</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>6th</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>could</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>debating</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>graders</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>like</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>telling</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>was</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>able</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>exceptionally</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>integrating</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>potentially</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>adolescents</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>among</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>barriers</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>correlates</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>internal</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>interrelationships</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>potential</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>realization</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>family-relations</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>when</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>creative-thinking</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>effects</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>enrichment</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>self-concept</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>insight</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>intellectual</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>accomplishment</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>depersonalization</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>emotional</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>exhaustion</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>factors</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>sense</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>teachers</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>cap</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>program</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>your</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>abilities</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>achievement</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>activities</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>delinquent</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>extracurricular</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>investigation</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>population</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>relationships</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>developmental</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>conceptual</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>development</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>participation</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>relates</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>imaginative</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>play</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>predicting</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>preschool-children</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>early</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>observations</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>questions</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>reading</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>equity</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>implications</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>future</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>called</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>place</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>here</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>schooling</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>where</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>more</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>one</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>academic-achievement</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>california-state-university-los-angeles</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>exceptional</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>academically</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>effective</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>self-confidence</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>skills</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>young</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>criterion</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>ideal</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>new</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>behavior</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>boys</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>elementary-school</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>girls</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>nongifted</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>differentiating</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>elementary</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>mathematics</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>proposed</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>presentations</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>teaching</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>verbal</t>
         </is>
@@ -1432,16 +1262,16 @@
         <v>1144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="E2" t="n">
-        <v>0.32</v>
+        <v>0.85</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1912,108 +1742,6 @@
         <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2028,34 +1756,34 @@
         <v>1145</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.14</v>
+        <v>0.59</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="H3" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="I3" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="J3" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -2508,108 +2236,6 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2624,13 +2250,13 @@
         <v>1146</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="E4" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2642,31 +2268,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="M4" t="n">
-        <v>0.21</v>
+        <v>0.45</v>
       </c>
       <c r="N4" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3104,108 +2730,6 @@
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3220,7 +2744,7 @@
         <v>1147</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3250,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -3265,16 +2789,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -3700,108 +3224,6 @@
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3816,7 +3238,7 @@
         <v>1148</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3837,70 +3259,70 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="N6" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="R6" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="W6" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -4296,108 +3718,6 @@
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,22 +3732,22 @@
         <v>1149</v>
       </c>
       <c r="D7" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -4436,10 +3756,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -4469,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -4499,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
@@ -4892,108 +4212,6 @@
         <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5008,13 +4226,13 @@
         <v>1150</v>
       </c>
       <c r="D8" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5038,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -5068,28 +4286,28 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
@@ -5104,31 +4322,31 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
@@ -5488,108 +4706,6 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5631,16 +4747,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -5664,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -5688,10 +4804,10 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -5727,10 +4843,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -6084,108 +5200,6 @@
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6218,16 +5232,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -6236,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -6290,13 +5304,13 @@
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
@@ -6329,19 +5343,19 @@
         <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
         <v>0</v>
@@ -6680,108 +5694,6 @@
         <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6799,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -6817,22 +5729,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -6862,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -6883,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -6895,22 +5807,22 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -6922,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -6940,28 +5852,28 @@
         <v>0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BH11" t="n">
         <v>0</v>
@@ -7276,108 +6188,6 @@
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7395,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -7419,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -7509,37 +6319,37 @@
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="BA12" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="BB12" t="n">
         <v>0</v>
@@ -7560,52 +6370,52 @@
         <v>0</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
         <v>0</v>
@@ -7872,108 +6682,6 @@
         <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8054,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -8138,16 +6846,16 @@
         <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
@@ -8204,16 +6912,16 @@
         <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CB13" t="n">
         <v>0</v>
@@ -8468,108 +7176,6 @@
         <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8590,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -8605,13 +7211,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8620,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -8728,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="BA14" t="n">
         <v>0</v>
@@ -8746,22 +7352,22 @@
         <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BG14" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="BH14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BK14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BL14" t="n">
         <v>0</v>
@@ -8791,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
         <v>0</v>
@@ -8812,22 +7418,22 @@
         <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CH14" t="n">
         <v>0</v>
@@ -9064,108 +7670,6 @@
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9186,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -9201,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9210,13 +7714,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9324,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BA15" t="n">
         <v>0</v>
@@ -9345,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BH15" t="n">
         <v>0</v>
@@ -9360,16 +7864,16 @@
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BN15" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BO15" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
@@ -9387,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
         <v>0</v>
@@ -9411,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
@@ -9426,16 +7930,16 @@
         <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
@@ -9660,108 +8164,6 @@
         <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9797,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9806,13 +8208,13 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9824,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -9968,25 +8370,25 @@
         <v>0</v>
       </c>
       <c r="BP16" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BR16" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BS16" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BT16" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BU16" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
@@ -10034,37 +8436,37 @@
         <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -10256,108 +8658,6 @@
         <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10399,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -10585,16 +8885,16 @@
         <v>0</v>
       </c>
       <c r="BW17" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="BX17" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BY17" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="CA17" t="n">
         <v>0</v>
@@ -10663,16 +8963,16 @@
         <v>0</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="DA17" t="n">
         <v>0</v>
@@ -10852,108 +9152,6 @@
         <v>0</v>
       </c>
       <c r="FH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10974,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -10989,28 +9187,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="N18" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -11049,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -11193,31 +9391,31 @@
         <v>0</v>
       </c>
       <c r="CA18" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="CB18" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="CC18" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CD18" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CE18" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CF18" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CG18" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CH18" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="CI18" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CJ18" t="n">
         <v>0</v>
@@ -11271,31 +9469,31 @@
         <v>0</v>
       </c>
       <c r="DA18" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DB18" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="DC18" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DD18" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DE18" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DH18" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DJ18" t="n">
         <v>0</v>
@@ -11448,108 +9646,6 @@
         <v>0</v>
       </c>
       <c r="FH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11585,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -11600,7 +9696,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -11612,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -11621,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -11816,10 +9912,10 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="CK19" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="CL19" t="n">
         <v>0</v>
@@ -11894,13 +9990,13 @@
         <v>0</v>
       </c>
       <c r="DJ19" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DK19" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="DL19" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="DM19" t="n">
         <v>0</v>
@@ -12044,108 +10140,6 @@
         <v>0</v>
       </c>
       <c r="FH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12166,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -12187,10 +10181,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -12418,16 +10412,16 @@
         <v>0</v>
       </c>
       <c r="CL20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CM20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CN20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CO20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CP20" t="n">
         <v>0</v>
@@ -12499,19 +10493,19 @@
         <v>0</v>
       </c>
       <c r="DM20" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="DN20" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="DO20" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="DP20" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DQ20" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="DR20" t="n">
         <v>0</v>
@@ -12640,108 +10634,6 @@
         <v>0</v>
       </c>
       <c r="FH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12759,19 +10651,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -12780,10 +10672,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -12795,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -13026,10 +10918,10 @@
         <v>0</v>
       </c>
       <c r="CP21" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="CQ21" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="CR21" t="n">
         <v>0</v>
@@ -13110,10 +11002,10 @@
         <v>0</v>
       </c>
       <c r="DR21" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="DS21" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="DT21" t="n">
         <v>0</v>
@@ -13236,108 +11128,6 @@
         <v>0</v>
       </c>
       <c r="FH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13358,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -13373,22 +11163,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -13580,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="CB22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CC22" t="n">
         <v>0</v>
@@ -13628,25 +11418,25 @@
         <v>0</v>
       </c>
       <c r="CR22" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="CS22" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="CT22" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="CU22" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="CV22" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="CW22" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="CX22" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="CY22" t="n">
         <v>0</v>
@@ -13658,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="DB22" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -13712,25 +11502,25 @@
         <v>0</v>
       </c>
       <c r="DT22" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DU22" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DV22" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DW22" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DX22" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DY22" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DZ22" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="EA22" t="n">
         <v>0</v>
@@ -13832,108 +11622,6 @@
         <v>0</v>
       </c>
       <c r="FH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13969,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -13984,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -14005,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -14245,13 +11933,13 @@
         <v>0</v>
       </c>
       <c r="CY23" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="CZ23" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="DA23" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="DB23" t="n">
         <v>0</v>
@@ -14296,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="DP23" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DQ23" t="n">
         <v>0</v>
@@ -14329,16 +12017,16 @@
         <v>0</v>
       </c>
       <c r="EA23" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EB23" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EC23" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="ED23" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EE23" t="n">
         <v>0</v>
@@ -14428,108 +12116,6 @@
         <v>0</v>
       </c>
       <c r="FH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14547,19 +12133,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -14571,10 +12157,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -14601,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -14631,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
         <v>0</v>
@@ -14661,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -14718,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="BJ24" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="BK24" t="n">
         <v>0</v>
@@ -14772,7 +12358,7 @@
         <v>0</v>
       </c>
       <c r="CB24" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="CC24" t="n">
         <v>0</v>
@@ -14817,7 +12403,7 @@
         <v>0</v>
       </c>
       <c r="CQ24" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="CR24" t="n">
         <v>0</v>
@@ -14850,28 +12436,28 @@
         <v>0</v>
       </c>
       <c r="DB24" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="DC24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="DD24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="DE24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="DF24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="DG24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="DH24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="DI24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="DJ24" t="n">
         <v>0</v>
@@ -14901,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="DS24" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DT24" t="n">
         <v>0</v>
@@ -14937,28 +12523,28 @@
         <v>0</v>
       </c>
       <c r="EE24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="EF24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="EG24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="EH24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="EI24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="EJ24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="EK24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="EL24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="EM24" t="n">
         <v>0</v>
@@ -15024,108 +12610,6 @@
         <v>0</v>
       </c>
       <c r="FH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15146,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -15161,13 +12645,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -15176,7 +12660,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -15386,7 +12870,7 @@
         <v>0</v>
       </c>
       <c r="CH25" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="CI25" t="n">
         <v>0</v>
@@ -15464,13 +12948,13 @@
         <v>0</v>
       </c>
       <c r="DH25" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="DI25" t="n">
         <v>0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="DK25" t="n">
         <v>0</v>
@@ -15557,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="EM25" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="EN25" t="n">
         <v>0</v>
@@ -15620,108 +13104,6 @@
         <v>0</v>
       </c>
       <c r="FH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15739,10 +13121,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -15757,7 +13139,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -15772,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -15817,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
@@ -15826,13 +13208,13 @@
         <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="n">
         <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AK26" t="n">
         <v>0</v>
@@ -15850,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AQ26" t="n">
         <v>0</v>
@@ -15874,7 +13256,7 @@
         <v>0</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AY26" t="n">
         <v>0</v>
@@ -15898,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="BF26" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BG26" t="n">
         <v>0</v>
@@ -16012,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="CR26" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="CS26" t="n">
         <v>0</v>
@@ -16069,19 +13451,19 @@
         <v>0</v>
       </c>
       <c r="DK26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DL26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DM26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DN26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DO26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DP26" t="n">
         <v>0</v>
@@ -16156,19 +13538,19 @@
         <v>0</v>
       </c>
       <c r="EN26" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="EO26" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="EP26" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="EQ26" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="ER26" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="ES26" t="n">
         <v>0</v>
@@ -16216,108 +13598,6 @@
         <v>0</v>
       </c>
       <c r="FH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16335,7 +13615,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -16680,16 +13960,16 @@
         <v>0</v>
       </c>
       <c r="DP27" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DQ27" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DR27" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DS27" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DT27" t="n">
         <v>0</v>
@@ -16767,16 +14047,16 @@
         <v>0</v>
       </c>
       <c r="ES27" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="ET27" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="EU27" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="EV27" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="EW27" t="n">
         <v>0</v>
@@ -16812,108 +14092,6 @@
         <v>0</v>
       </c>
       <c r="FH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16937,13 +14115,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -16958,7 +14136,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -17042,7 +14220,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AQ28" t="n">
         <v>0</v>
@@ -17288,16 +14466,16 @@
         <v>0</v>
       </c>
       <c r="DT28" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="DU28" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="DV28" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="DW28" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="DX28" t="n">
         <v>0</v>
@@ -17375,16 +14553,16 @@
         <v>0</v>
       </c>
       <c r="EW28" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="EX28" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="EY28" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="EZ28" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="FA28" t="n">
         <v>0</v>
@@ -17408,108 +14586,6 @@
         <v>0</v>
       </c>
       <c r="FH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17527,7 +14603,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -17545,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -17554,13 +14630,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -17590,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -17647,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AT29" t="n">
         <v>0</v>
@@ -17704,7 +14780,7 @@
         <v>0</v>
       </c>
       <c r="BL29" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BM29" t="n">
         <v>0</v>
@@ -17896,13 +14972,13 @@
         <v>0</v>
       </c>
       <c r="DX29" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="DY29" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DZ29" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="EA29" t="n">
         <v>0</v>
@@ -17983,13 +15059,13 @@
         <v>0</v>
       </c>
       <c r="FA29" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="FB29" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="FC29" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="FD29" t="n">
         <v>0</v>
@@ -18004,108 +15080,6 @@
         <v>0</v>
       </c>
       <c r="FH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18147,7 +15121,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -18186,7 +15160,7 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -18243,7 +15217,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
@@ -18300,7 +15274,7 @@
         <v>0</v>
       </c>
       <c r="BL30" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="BM30" t="n">
         <v>0</v>
@@ -18501,7 +15475,7 @@
         <v>0</v>
       </c>
       <c r="EA30" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="EB30" t="n">
         <v>0</v>
@@ -18588,7 +15562,7 @@
         <v>0</v>
       </c>
       <c r="FD30" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="FE30" t="n">
         <v>0</v>
@@ -18600,108 +15574,6 @@
         <v>0</v>
       </c>
       <c r="FH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18719,7 +15591,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -18737,13 +15609,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -18752,7 +15624,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -18773,7 +15645,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -18857,7 +15729,7 @@
         <v>0</v>
       </c>
       <c r="AY31" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AZ31" t="n">
         <v>0</v>
@@ -18884,7 +15756,7 @@
         <v>0</v>
       </c>
       <c r="BH31" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BI31" t="n">
         <v>0</v>
@@ -18920,7 +15792,7 @@
         <v>0</v>
       </c>
       <c r="BT31" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BU31" t="n">
         <v>0</v>
@@ -19100,13 +15972,13 @@
         <v>0</v>
       </c>
       <c r="EB31" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="EC31" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="ED31" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="EE31" t="n">
         <v>0</v>
@@ -19187,117 +16059,15 @@
         <v>0</v>
       </c>
       <c r="FE31" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="FF31" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="FG31" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="FH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19333,13 +16103,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -19348,7 +16118,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -19378,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -19441,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AV32" t="n">
         <v>0</v>
@@ -19453,7 +16223,7 @@
         <v>0</v>
       </c>
       <c r="AY32" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AZ32" t="n">
         <v>0</v>
@@ -19495,7 +16265,7 @@
         <v>0</v>
       </c>
       <c r="BM32" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BN32" t="n">
         <v>0</v>
@@ -19705,10 +16475,10 @@
         <v>0</v>
       </c>
       <c r="EE32" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="EF32" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="EG32" t="n">
         <v>0</v>
@@ -19792,108 +16562,6 @@
         <v>0</v>
       </c>
       <c r="FH32" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="FI32" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="FJ32" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="FK32" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="FL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20037,7 +16705,7 @@
         <v>0</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AV33" t="n">
         <v>0</v>
@@ -20073,7 +16741,7 @@
         <v>0</v>
       </c>
       <c r="BG33" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BH33" t="n">
         <v>0</v>
@@ -20307,13 +16975,13 @@
         <v>0</v>
       </c>
       <c r="EG33" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EH33" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EI33" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EJ33" t="n">
         <v>0</v>
@@ -20388,108 +17056,6 @@
         <v>0</v>
       </c>
       <c r="FH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL33" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="FM33" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="FN33" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="FO33" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="FP33" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="FQ33" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="FR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20507,13 +17073,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -20570,7 +17136,7 @@
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
@@ -20672,7 +17238,7 @@
         <v>0</v>
       </c>
       <c r="BH34" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BI34" t="n">
         <v>0</v>
@@ -20912,13 +17478,13 @@
         <v>0</v>
       </c>
       <c r="EJ34" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="EK34" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="EL34" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="EM34" t="n">
         <v>0</v>
@@ -20984,108 +17550,6 @@
         <v>0</v>
       </c>
       <c r="FH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR34" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="FS34" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="FT34" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="FU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21103,7 +17567,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -21130,7 +17594,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -21220,7 +17684,7 @@
         <v>0</v>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AS35" t="n">
         <v>0</v>
@@ -21277,56 +17741,56 @@
         <v>0</v>
       </c>
       <c r="BK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA35" t="n">
         <v>0.29</v>
       </c>
-      <c r="BL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA35" t="n">
-        <v>0</v>
-      </c>
       <c r="CB35" t="n">
         <v>0</v>
       </c>
@@ -21391,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="CW35" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="CX35" t="n">
         <v>0</v>
@@ -21403,7 +17867,7 @@
         <v>0</v>
       </c>
       <c r="DA35" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="DB35" t="n">
         <v>0</v>
@@ -21517,22 +17981,22 @@
         <v>0</v>
       </c>
       <c r="EM35" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EN35" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EO35" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EP35" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EQ35" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="ER35" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="ES35" t="n">
         <v>0</v>
@@ -21580,108 +18044,6 @@
         <v>0</v>
       </c>
       <c r="FH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU35" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FV35" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FW35" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FX35" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FY35" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="FZ35" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21723,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -21753,7 +18115,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -21762,7 +18124,7 @@
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
@@ -21948,7 +18310,7 @@
         <v>0</v>
       </c>
       <c r="CJ36" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="CK36" t="n">
         <v>0</v>
@@ -22026,7 +18388,7 @@
         <v>0</v>
       </c>
       <c r="DJ36" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DK36" t="n">
         <v>0</v>
@@ -22131,13 +18493,13 @@
         <v>0</v>
       </c>
       <c r="ES36" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="ET36" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="EU36" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="EV36" t="n">
         <v>0</v>
@@ -22176,108 +18538,6 @@
         <v>0</v>
       </c>
       <c r="FH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="GB36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="GC36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="GD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22298,13 +18558,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -22313,7 +18573,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -22322,13 +18582,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -22736,19 +18996,19 @@
         <v>0</v>
       </c>
       <c r="EV37" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="EW37" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="EX37" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="EY37" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="EZ37" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="FA37" t="n">
         <v>0</v>
@@ -22772,108 +19032,6 @@
         <v>0</v>
       </c>
       <c r="FH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD37" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="GE37" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="GF37" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="GG37" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="GH37" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="GI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22939,13 +19097,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -22954,7 +19112,7 @@
         <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
@@ -22966,7 +19124,7 @@
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
         <v>0</v>
@@ -23032,7 +19190,7 @@
         <v>0</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="BA38" t="n">
         <v>0</v>
@@ -23095,16 +19253,16 @@
         <v>0</v>
       </c>
       <c r="BU38" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="BV38" t="n">
         <v>0</v>
       </c>
       <c r="BW38" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="BX38" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="BY38" t="n">
         <v>0</v>
@@ -23179,10 +19337,10 @@
         <v>0</v>
       </c>
       <c r="CW38" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="CX38" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CY38" t="n">
         <v>0</v>
@@ -23347,16 +19505,16 @@
         <v>0</v>
       </c>
       <c r="FA38" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FB38" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FC38" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FD38" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FE38" t="n">
         <v>0</v>
@@ -23368,108 +19526,6 @@
         <v>0</v>
       </c>
       <c r="FH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI38" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GJ38" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GK38" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GL38" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23505,7 +19561,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -23520,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -23565,7 +19621,7 @@
         <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
         <v>0</v>
@@ -23628,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="BA39" t="n">
         <v>0</v>
@@ -23691,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="BU39" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="BV39" t="n">
         <v>0</v>
@@ -23955,118 +20011,16 @@
         <v>0</v>
       </c>
       <c r="FE39" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="FF39" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="FG39" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="FH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM39" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="GN39" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="GO39" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="GP39" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
